--- a/biology/Zoologie/Bothus/Bothus.xlsx
+++ b/biology/Zoologie/Bothus/Bothus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bothus est un genre de poissons plats de la famille des Bothidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres espèces de l'ordre des Pleuronectiformes, les espèces du genre Bothus sont des poissons plats. Ils se caractérisent par des yeux très écartés l'un de l'autre, surtout chez les mâles. Les larves tardives portent des tentacules frontaux ramifiés.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À part l'espèce Bothus podas les espèces de ce genre sont surtout répandues à l'est du continent américain. 
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (18 mars 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (18 mars 2015) :
 Bothus assimilis (Günther, 1862)
 Bothus constellatus (Jordan, 1889)
 Bothus ellipticus (Poey, 1860)
